--- a/res/awesome_tools/V1.0_ConsumptionTemplatePlus.xlsx
+++ b/res/awesome_tools/V1.0_ConsumptionTemplatePlus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="21000" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
     <t>7. anyway, keep things easy. 不要让记录成为负担。推荐平时使用印象笔记之类的进行简单快速记录，周末再进行格式整理；</t>
   </si>
   <si>
-    <t>8. 最后附上链接：https://gitlab.com/csnotes/csnotes/blob/master/res/awesome_tools/V1.0_CostCalculationTemplatePlus.xlsx</t>
+    <t>8. 最后附上链接：https://gitlab.com/csnotes/csnotes/blob/master/res/awesome_tools/V1.0_ConsumptionTemplatePlus.xlsx</t>
   </si>
   <si>
     <t>测试数据￥10</t>
@@ -227,12 +227,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,38 +263,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,31 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,23 +317,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,9 +331,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,14 +396,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,19 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,25 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,13 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,31 +544,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,13 +604,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,49 +652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,6 +1219,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1268,56 +1297,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1332,160 +1316,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1988,8 +1963,8 @@
   <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2027,7 +2002,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">NOW()</f>
-        <v>43864.407662037</v>
+        <v>43865.772662037</v>
       </c>
       <c r="F2" s="37"/>
     </row>
@@ -2499,8 +2474,8 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
